--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Samtskhe-Javakheti/Akhaltsikhe Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Samtskhe-Javakheti/Akhaltsikhe Municipality.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>(Unit)</t>
   </si>
@@ -41,28 +41,6 @@
   <si>
     <t>Number of Rooms in Hotels and Hotel-type enterprises in Akhaltsikhe Municipality</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Data is confidential or unavailable.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -72,7 +50,7 @@
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +82,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -194,33 +164,33 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +475,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,44 +484,44 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
       <c r="B3" s="2">
         <v>2010</v>
       </c>
@@ -588,10 +558,10 @@
       <c r="M3" s="2">
         <v>2021</v>
       </c>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
@@ -630,10 +600,10 @@
       <c r="M4" s="4">
         <v>441</v>
       </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -672,10 +642,10 @@
       <c r="M5" s="3">
         <v>22</v>
       </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -714,10 +684,10 @@
       <c r="M6" s="3">
         <v>60</v>
       </c>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6">
@@ -756,10 +726,10 @@
       <c r="M7" s="3">
         <v>285</v>
       </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5">
@@ -798,25 +768,23 @@
       <c r="M8" s="3">
         <v>74</v>
       </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="9"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Samtskhe-Javakheti/Akhaltsikhe Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Samtskhe-Javakheti/Akhaltsikhe Municipality.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9615C53-A30D-4401-B653-1DFD584D8022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Akhaltsikhe" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
@@ -146,25 +147,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -175,18 +175,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -194,7 +203,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,12 +480,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -484,44 +491,42 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
       <c r="B3" s="2">
         <v>2010</v>
       </c>
@@ -558,10 +563,15 @@
       <c r="M3" s="2">
         <v>2021</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
@@ -600,10 +610,15 @@
       <c r="M4" s="4">
         <v>441</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="4">
+        <v>528</v>
+      </c>
+      <c r="O4" s="4">
+        <v>606</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -642,10 +657,15 @@
       <c r="M5" s="3">
         <v>22</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="3">
+        <v>22</v>
+      </c>
+      <c r="O5" s="3">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -684,10 +704,15 @@
       <c r="M6" s="3">
         <v>60</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="3">
+        <v>67</v>
+      </c>
+      <c r="O6" s="3">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6">
@@ -726,69 +751,77 @@
       <c r="M7" s="3">
         <v>285</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="3">
+        <v>362</v>
+      </c>
+      <c r="O7" s="3">
+        <v>420</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="15">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="16">
         <v>28</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="16">
         <v>29</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="16">
         <v>32</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="16">
         <v>46</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="16">
         <v>63</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="16">
         <v>68</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="16">
         <v>73</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="16">
         <v>73</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="16">
         <v>84</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="16">
         <v>39</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="16">
         <v>74</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="16">
+        <v>77</v>
+      </c>
+      <c r="O8" s="16">
+        <v>84</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="1">
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
